--- a/Reports/MarketBeatRank/2019/T_INV19_LARGE/CY.xlsx
+++ b/Reports/MarketBeatRank/2019/T_INV19_LARGE/CY.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i852841/_Codes/_Personal/StockRankingCrawler/Reports/MarketBeatRank/2019/T_INV19_LARGE/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13B295F-AE89-7D4F-A0DF-4F0544492A74}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2019" r:id="rId3" sheetId="1"/>
+    <sheet name="2019" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="67">
   <si>
     <t>Mar_10</t>
   </si>
@@ -129,32 +137,140 @@
   </si>
   <si>
     <t>10/23/2018,Lower Price Target,Equal Weight ➝ Equal Weight,$18.00 ➝ $16.00</t>
+  </si>
+  <si>
+    <t>Mar_17</t>
+  </si>
+  <si>
+    <t>3/14/2019,Reiterates,Buy,</t>
+  </si>
+  <si>
+    <t>3/14/2019,Reiterates,Buy,$18.00</t>
+  </si>
+  <si>
+    <t>Apr_04</t>
+  </si>
+  <si>
+    <t>4/1/2019,Reiterates,Buy,$16.00</t>
+  </si>
+  <si>
+    <t>Oppenheimer Funds</t>
+  </si>
+  <si>
+    <t>Guggenheim</t>
+  </si>
+  <si>
+    <t>Apr_11</t>
+  </si>
+  <si>
+    <t>Apr_17</t>
+  </si>
+  <si>
+    <t>4/12/2019,Raises Target,Buy,$20.00</t>
+  </si>
+  <si>
+    <t>Apr_21</t>
+  </si>
+  <si>
+    <t>4/18/2019,Upgrades,Buy -&gt; Strong-Buy,</t>
+  </si>
+  <si>
+    <t>Apr_28</t>
+  </si>
+  <si>
+    <t>4/26/2019,Downgrades,Hold -&gt; Sell,</t>
+  </si>
+  <si>
+    <t>May_15</t>
+  </si>
+  <si>
+    <t>5/14/2019,Downgrades,Strong-Buy -&gt; Buy,</t>
+  </si>
+  <si>
+    <t>Susquehanna Bancshares</t>
+  </si>
+  <si>
+    <t>Nomura</t>
+  </si>
+  <si>
+    <t>May_23</t>
+  </si>
+  <si>
+    <t>5/22/2019,Downgrades,Buy -&gt; Hold,</t>
+  </si>
+  <si>
+    <t>Jun_09</t>
+  </si>
+  <si>
+    <t>6/3/2019,Downgrades,Buy -&gt; Hold,</t>
+  </si>
+  <si>
+    <t>6/3/2019,Downgrades,Overweight -&gt; Neutral,</t>
+  </si>
+  <si>
+    <t>6/3/2019,Upgrades,Hold -&gt; Buy,</t>
+  </si>
+  <si>
+    <t>6/5/2019,Upgrades,Hold -&gt; Buy,</t>
+  </si>
+  <si>
+    <t>6/3/2019,Downgrades,Buy -&gt; Neutral,$20.00 -&gt; $24.00</t>
+  </si>
+  <si>
+    <t>6/6/2019,Reiterates,Hold,$23.00</t>
+  </si>
+  <si>
+    <t>6/3/2019,Downgrades,Positive -&gt; Neutral,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="none">
+      <patternFill patternType="solid">
         <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
       </patternFill>
     </fill>
     <fill>
@@ -173,255 +289,1455 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="43.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="34.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="7" width="29.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="8" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="1">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s" s="3">
+      <c r="B10" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="B11" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13">
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14">
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15">
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16">
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17">
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18">
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19">
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20">
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="22">
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" t="s">
+        <v>2</v>
+      </c>
+      <c r="K21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="B22" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" t="s">
+        <v>2</v>
+      </c>
+      <c r="K23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="25">
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" t="s">
+        <v>2</v>
+      </c>
+      <c r="K24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="26">
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" t="s">
+        <v>2</v>
+      </c>
+      <c r="K25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" t="s">
+        <v>2</v>
+      </c>
+      <c r="K26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" t="s">
+        <v>2</v>
+      </c>
+      <c r="K27" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="29">
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" t="s">
+        <v>2</v>
+      </c>
+      <c r="K28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
         <v>2</v>
       </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" t="s">
+        <v>2</v>
+      </c>
+      <c r="K29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>2</v>
+      </c>
+      <c r="I30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" t="s">
+        <v>2</v>
+      </c>
+      <c r="I31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Reports/MarketBeatRank/2019/T_INV19_LARGE/CY.xlsx
+++ b/Reports/MarketBeatRank/2019/T_INV19_LARGE/CY.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i852841/_Codes/_Personal/StockRankingCrawler/Reports/MarketBeatRank/2019/T_INV19_LARGE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13B295F-AE89-7D4F-A0DF-4F0544492A74}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{B13B295F-AE89-7D4F-A0DF-4F0544492A74}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="19480" windowWidth="33600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet name="2019" sheetId="1" r:id="rId1"/>
+    <sheet name="2019" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8633" uniqueCount="79">
   <si>
     <t>Mar_10</t>
   </si>
@@ -221,12 +221,49 @@
   </si>
   <si>
     <t>6/3/2019,Downgrades,Positive -&gt; Neutral,</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Jun_16</t>
+  </si>
+  <si>
+    <t>Jun_24</t>
+  </si>
+  <si>
+    <t>Jun_30</t>
+  </si>
+  <si>
+    <t>Jul_07</t>
+  </si>
+  <si>
+    <t>Jul_17</t>
+  </si>
+  <si>
+    <t>Jul_23</t>
+  </si>
+  <si>
+    <t>Aug_04</t>
+  </si>
+  <si>
+    <t>8/1/2019,Upgrades,Sell -&gt; Hold,</t>
+  </si>
+  <si>
+    <t>Aug_25</t>
+  </si>
+  <si>
+    <t>8/24/2019,Downgrades,Hold -&gt; Sell,</t>
+  </si>
+  <si>
+    <t>Sep_08</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -236,7 +273,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,6 +315,26 @@
         <fgColor indexed="42"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -289,30 +346,318 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+  <cellXfs count="303">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -329,10 +674,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -367,7 +712,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -419,7 +764,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -530,21 +875,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -561,7 +906,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -613,14 +958,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -629,45 +974,84 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="43.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="34.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="7" width="29.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="8" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="43.83203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="43.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="43.83203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="43.83203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="43.83203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="43.83203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.83203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="43.83203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="43.83203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="43.83203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="29.33203125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="34.1640625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="29.33203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="29.33203125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="29.33203125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="8.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N1" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="F1" t="s">
+      <c r="O1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="I1" t="s">
+      <c r="R1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="J1" t="s">
+      <c r="S1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="K1" t="s">
+      <c r="T1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
@@ -675,34 +1059,61 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="L2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="Q2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="J2" t="s">
+      <c r="S2" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="K2" t="s">
+      <c r="T2" s="0" t="s">
         <v>30</v>
       </c>
     </row>
@@ -713,31 +1124,58 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="C3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -748,31 +1186,58 @@
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="C4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -783,31 +1248,58 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="O5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -818,31 +1310,58 @@
       <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="C6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T6" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -853,31 +1372,58 @@
       <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="C7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" s="0" t="s">
         <v>32</v>
       </c>
     </row>
@@ -888,31 +1434,58 @@
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" t="s">
-        <v>2</v>
-      </c>
-      <c r="J8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="C8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T8" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -923,31 +1496,58 @@
       <c r="B9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="C9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T9" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -955,34 +1555,61 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" t="s">
-        <v>2</v>
-      </c>
-      <c r="J10" t="s">
-        <v>2</v>
-      </c>
-      <c r="K10" s="3" t="s">
+      <c r="L10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T10" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -990,34 +1617,61 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I11" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" t="s">
-        <v>2</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="L11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T11" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1028,31 +1682,58 @@
       <c r="B12" t="s">
         <v>2</v>
       </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" t="s">
-        <v>2</v>
-      </c>
-      <c r="I12" t="s">
-        <v>2</v>
-      </c>
-      <c r="J12" t="s">
-        <v>2</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="C12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T12" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1063,31 +1744,58 @@
       <c r="B13" t="s">
         <v>2</v>
       </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" t="s">
-        <v>2</v>
-      </c>
-      <c r="I13" t="s">
-        <v>2</v>
-      </c>
-      <c r="J13" t="s">
-        <v>2</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="C13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T13" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1098,31 +1806,58 @@
       <c r="B14" t="s">
         <v>2</v>
       </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" t="s">
-        <v>2</v>
-      </c>
-      <c r="I14" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" t="s">
-        <v>2</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="C14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T14" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1133,31 +1868,58 @@
       <c r="B15" t="s">
         <v>2</v>
       </c>
-      <c r="C15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" t="s">
-        <v>2</v>
-      </c>
-      <c r="I15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J15" t="s">
-        <v>2</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="C15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T15" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1168,31 +1930,58 @@
       <c r="B16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I16" t="s">
-        <v>2</v>
-      </c>
-      <c r="J16" t="s">
-        <v>2</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="C16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T16" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1203,31 +1992,58 @@
       <c r="B17" t="s">
         <v>2</v>
       </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" t="s">
-        <v>2</v>
-      </c>
-      <c r="I17" t="s">
-        <v>2</v>
-      </c>
-      <c r="J17" t="s">
-        <v>2</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="C17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T17" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1238,31 +2054,58 @@
       <c r="B18" t="s">
         <v>2</v>
       </c>
-      <c r="C18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I18" t="s">
-        <v>2</v>
-      </c>
-      <c r="J18" t="s">
-        <v>2</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="C18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T18" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1273,31 +2116,58 @@
       <c r="B19" t="s">
         <v>2</v>
       </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H19" t="s">
-        <v>2</v>
-      </c>
-      <c r="I19" t="s">
-        <v>2</v>
-      </c>
-      <c r="J19" t="s">
-        <v>2</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="C19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T19" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1308,31 +2178,58 @@
       <c r="B20" t="s">
         <v>2</v>
       </c>
-      <c r="C20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" t="s">
-        <v>2</v>
-      </c>
-      <c r="I20" t="s">
-        <v>2</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="C20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S20" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="K20" t="s">
+      <c r="T20" s="0" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1343,31 +2240,58 @@
       <c r="B21" t="s">
         <v>2</v>
       </c>
-      <c r="C21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" t="s">
-        <v>2</v>
-      </c>
-      <c r="H21" t="s">
-        <v>2</v>
-      </c>
-      <c r="I21" t="s">
-        <v>2</v>
-      </c>
-      <c r="J21" t="s">
-        <v>2</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="C21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T21" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1375,34 +2299,61 @@
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="259" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="227" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="L22" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="M22" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E22" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" s="5" t="s">
+      <c r="N22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O22" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G22" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I22" t="s">
-        <v>2</v>
-      </c>
-      <c r="J22" t="s">
-        <v>2</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="P22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T22" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1410,34 +2361,61 @@
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K23" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" t="s">
-        <v>2</v>
-      </c>
-      <c r="G23" t="s">
-        <v>2</v>
-      </c>
-      <c r="H23" t="s">
-        <v>2</v>
-      </c>
-      <c r="I23" t="s">
-        <v>2</v>
-      </c>
-      <c r="J23" t="s">
-        <v>2</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="L23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T23" s="0" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1448,31 +2426,58 @@
       <c r="B24" t="s">
         <v>2</v>
       </c>
-      <c r="C24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" t="s">
-        <v>2</v>
-      </c>
-      <c r="G24" t="s">
-        <v>2</v>
-      </c>
-      <c r="H24" t="s">
-        <v>2</v>
-      </c>
-      <c r="I24" t="s">
-        <v>2</v>
-      </c>
-      <c r="J24" t="s">
-        <v>2</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="C24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T24" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1483,31 +2488,58 @@
       <c r="B25" t="s">
         <v>2</v>
       </c>
-      <c r="C25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25" t="s">
-        <v>2</v>
-      </c>
-      <c r="G25" t="s">
-        <v>2</v>
-      </c>
-      <c r="H25" t="s">
-        <v>2</v>
-      </c>
-      <c r="I25" t="s">
-        <v>2</v>
-      </c>
-      <c r="J25" t="s">
-        <v>2</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="C25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T25" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1518,31 +2550,58 @@
       <c r="B26" t="s">
         <v>2</v>
       </c>
-      <c r="C26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26" t="s">
-        <v>2</v>
-      </c>
-      <c r="G26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H26" t="s">
-        <v>2</v>
-      </c>
-      <c r="I26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J26" t="s">
-        <v>2</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="C26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T26" s="0" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1551,33 +2610,60 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K27" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" t="s">
-        <v>2</v>
-      </c>
-      <c r="G27" t="s">
-        <v>2</v>
-      </c>
-      <c r="H27" t="s">
-        <v>2</v>
-      </c>
-      <c r="I27" t="s">
-        <v>2</v>
-      </c>
-      <c r="J27" t="s">
-        <v>2</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="L27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T27" s="0" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1588,31 +2674,58 @@
       <c r="B28" t="s">
         <v>2</v>
       </c>
-      <c r="C28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28" t="s">
-        <v>2</v>
-      </c>
-      <c r="G28" t="s">
-        <v>2</v>
-      </c>
-      <c r="H28" t="s">
-        <v>2</v>
-      </c>
-      <c r="I28" t="s">
-        <v>2</v>
-      </c>
-      <c r="J28" t="s">
-        <v>2</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="C28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T28" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1623,31 +2736,58 @@
       <c r="B29" t="s">
         <v>2</v>
       </c>
-      <c r="C29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29" t="s">
-        <v>2</v>
-      </c>
-      <c r="H29" t="s">
-        <v>2</v>
-      </c>
-      <c r="I29" t="s">
-        <v>2</v>
-      </c>
-      <c r="J29" t="s">
-        <v>2</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="C29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T29" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1658,25 +2798,52 @@
       <c r="B30" t="s">
         <v>2</v>
       </c>
-      <c r="C30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s">
-        <v>2</v>
-      </c>
-      <c r="F30" t="s">
-        <v>2</v>
-      </c>
-      <c r="G30" t="s">
-        <v>2</v>
-      </c>
-      <c r="H30" t="s">
-        <v>2</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="C30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R30" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1687,25 +2854,52 @@
       <c r="B31" t="s">
         <v>2</v>
       </c>
-      <c r="C31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" t="s">
-        <v>2</v>
-      </c>
-      <c r="F31" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31" t="s">
-        <v>2</v>
-      </c>
-      <c r="H31" t="s">
-        <v>2</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="C31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R31" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1713,13 +2907,40 @@
       <c r="A32" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K32" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="L32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M32" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1730,14 +2951,41 @@
       <c r="B33" t="s">
         <v>2</v>
       </c>
-      <c r="C33" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="C33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M33" s="0" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>